--- a/biology/Médecine/Philippe_Lacadée/Philippe_Lacadée.xlsx
+++ b/biology/Médecine/Philippe_Lacadée/Philippe_Lacadée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Philippe_Lacad%C3%A9e</t>
+          <t>Philippe_Lacadée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Lacadée est un psychiatre et psychanalyste français, membre de l'ECF et de l'AMP.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philippe_Lacad%C3%A9e</t>
+          <t>Philippe_Lacadée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fonctions et affiliations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien président du Centre Interdisciplinaire sur l'ENfant (CIEN) et ancien psychiatre du Centre de jour pour adolescents dans le Centre hospitalier de Cadillac, membre de l’École de la Cause freudienne et de l'Association mondiale de psychanalyse. 
 Psychanalyste à Bordeaux, il dirige la collection « Je est un autre » aux éditions Michèle.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Philippe_Lacad%C3%A9e</t>
+          <t>Philippe_Lacadée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Laurence Janot-Bergugnat et Nicole Rascle, dans Le stress des enseignants, montrent que Philippe Lacadée donne des pistes qui peuvent aider les enseignants à mieux connaître le mode de socialisation de certains de leurs élèves, à faire le pont entre savoir et univers des élèves, en particulier issus des quartiers sensibles, des pistes qui peuvent donner du sens aux apprentissages, première condition de réduction de la violence, à travers des textes du passé et d’aujourd'hui rejoignant les préoccupations adolescentes : 
-« Les poèmes de Rimbaud, Les Mots de Sartre, L'éveil du printemps, de Wedekind, L'Attrape-cœurs de Salinger, Ai-je une patrie ? d'Henri Thomas, L'adolescent de Dostoïevski, Le lys dans la vallée de Balzac, les textes de Rap comme L'enfant seul d'Oxmo Puccino, J'appuie sur la gâchette de NTM. Pratiquer ainsi, c’est permettre aux élèves de mettre du sens et du lien, c'est les inscrire dans une histoire qui les concerne à l'adolescence et dans leur vie quotidienne, parce que "les adolescents nous ont souvent témoigné de la détresse à laquelle les acculent leurs impasses langagières, ils nous ont souvent parlé des issues ségrégatives qu'ils ont cru trouver en se regroupant par bandes ou en clans et en construisant des codes où le vocabulaire s'appauvrit tant qu'ils finissent par parler une langue peu dialectisable, une langue trop chargée de jouissance[1]. »
+« Les poèmes de Rimbaud, Les Mots de Sartre, L'éveil du printemps, de Wedekind, L'Attrape-cœurs de Salinger, Ai-je une patrie ? d'Henri Thomas, L'adolescent de Dostoïevski, Le lys dans la vallée de Balzac, les textes de Rap comme L'enfant seul d'Oxmo Puccino, J'appuie sur la gâchette de NTM. Pratiquer ainsi, c’est permettre aux élèves de mettre du sens et du lien, c'est les inscrire dans une histoire qui les concerne à l'adolescence et dans leur vie quotidienne, parce que "les adolescents nous ont souvent témoigné de la détresse à laquelle les acculent leurs impasses langagières, ils nous ont souvent parlé des issues ségrégatives qu'ils ont cru trouver en se regroupant par bandes ou en clans et en construisant des codes où le vocabulaire s'appauvrit tant qu'ils finissent par parler une langue peu dialectisable, une langue trop chargée de jouissance. »
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Philippe_Lacad%C3%A9e</t>
+          <t>Philippe_Lacadée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le malentendu de l'enfant : Des enseignements psychanalytiques de la clinique avec les enfants, Payot Lausanne - Nadir, 2003  (ISBN 978-2601033175)
 L'éveil et l'exil : Enseignements psychanalytiques de la plus délicate des transitions : l'adolescence, Éditions Cécile Defaut, 2007  (ISBN 978-2350180557)
